--- a/Data/payroll.xlsx
+++ b/Data/payroll.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jewero\Desktop\Cameron\Random\RonAccounting\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinejudge/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Cameron/RonAccounting/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0D1878-AB0D-F248-85B8-B5B3203E944B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="5880"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll Detail" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -928,7 +930,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1403,27 +1405,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N240" sqref="N240"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A256" sqref="A256:XFD257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1"/>
-    <col min="5" max="5" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1"/>
-    <col min="11" max="12" width="10.875" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1956,7 +1958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2079,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2653,7 +2655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -2735,7 +2737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -2899,7 +2901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -2940,7 +2942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -2981,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -3350,7 +3352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>14</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>14</v>
       </c>
@@ -3596,7 +3598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>14</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>14</v>
       </c>
@@ -3842,7 +3844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>14</v>
       </c>
@@ -3924,7 +3926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>14</v>
       </c>
@@ -3965,7 +3967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -4047,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>14</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>14</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -4375,7 +4377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>14</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>97</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>14</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>14</v>
       </c>
@@ -4662,7 +4664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>14</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>14</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>14</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>14</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -5031,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>14</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>104</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
@@ -5236,7 +5238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>14</v>
       </c>
@@ -5277,7 +5279,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
@@ -5318,7 +5320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>14</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>14</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>118</v>
       </c>
@@ -5523,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
@@ -5564,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -5646,7 +5648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -5687,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>14</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>14</v>
       </c>
@@ -5810,7 +5812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>14</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>14</v>
       </c>
@@ -5933,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>14</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>14</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
@@ -6056,7 +6058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>14</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>14</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>14</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>138</v>
       </c>
@@ -6220,7 +6222,7 @@
         <v>1684.98</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>14</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>1684.98</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>14</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>14</v>
       </c>
@@ -6384,7 +6386,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>14</v>
       </c>
@@ -6425,7 +6427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>14</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>676.98</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>14</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>148</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>14</v>
       </c>
@@ -6589,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>14</v>
       </c>
@@ -6630,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>14</v>
       </c>
@@ -6671,7 +6673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>14</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -6753,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>14</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>14</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>14</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>14</v>
       </c>
@@ -6917,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>14</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>14</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>14</v>
       </c>
@@ -7040,7 +7042,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>14</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>14</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>155</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>476.36</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>14</v>
       </c>
@@ -7204,7 +7206,7 @@
         <v>476.36</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>14</v>
       </c>
@@ -7245,7 +7247,7 @@
         <v>164.02</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>14</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>14</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>215.34</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>14</v>
       </c>
@@ -7368,7 +7370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>14</v>
       </c>
@@ -7409,7 +7411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>14</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>14</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>14</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>14</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
         <v>14</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>14</v>
       </c>
@@ -7655,7 +7657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>168</v>
       </c>
@@ -7696,7 +7698,7 @@
         <v>1244.75</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>14</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>1244.75</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>14</v>
       </c>
@@ -7778,7 +7780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>14</v>
       </c>
@@ -7819,7 +7821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>14</v>
       </c>
@@ -7860,7 +7862,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>14</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>1098.75</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>14</v>
       </c>
@@ -7983,7 +7985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>177</v>
       </c>
@@ -8024,7 +8026,7 @@
         <v>882.48</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>14</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>882.48</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>14</v>
       </c>
@@ -8106,7 +8108,7 @@
         <v>588.91</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>14</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>14</v>
       </c>
@@ -8188,7 +8190,7 @@
         <v>293.57</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>184</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>14</v>
       </c>
@@ -8311,7 +8313,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>14</v>
       </c>
@@ -8352,7 +8354,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -8393,7 +8395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>14</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>14</v>
       </c>
@@ -8475,7 +8477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>14</v>
       </c>
@@ -8516,7 +8518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>14</v>
       </c>
@@ -8557,7 +8559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>14</v>
       </c>
@@ -8598,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>14</v>
       </c>
@@ -8639,7 +8641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>198</v>
       </c>
@@ -8680,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>14</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>14</v>
       </c>
@@ -8762,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>14</v>
       </c>
@@ -8803,7 +8805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>14</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>14</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>14</v>
       </c>
@@ -8926,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>14</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>14</v>
       </c>
@@ -9008,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>14</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>14</v>
       </c>
@@ -9090,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>14</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>212</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>14</v>
       </c>
@@ -9213,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>14</v>
       </c>
@@ -9254,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>14</v>
       </c>
@@ -9295,7 +9297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>14</v>
       </c>
@@ -9336,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>14</v>
       </c>
@@ -9377,7 +9379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>14</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
@@ -9459,7 +9461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
@@ -9500,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -9541,7 +9543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>14</v>
       </c>
@@ -9623,7 +9625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>14</v>
       </c>
@@ -9664,7 +9666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>14</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -9746,7 +9748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>232</v>
       </c>
@@ -9787,7 +9789,7 @@
         <v>1433.75</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>14</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>1369.75</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>14</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>14</v>
       </c>
@@ -9910,7 +9912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>14</v>
       </c>
@@ -9951,7 +9953,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>14</v>
       </c>
@@ -9992,7 +9994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>14</v>
       </c>
@@ -10033,7 +10035,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>14</v>
       </c>
@@ -10074,7 +10076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>14</v>
       </c>
@@ -10115,7 +10117,7 @@
         <v>223.75</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>14</v>
       </c>
@@ -10156,7 +10158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>14</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>14</v>
       </c>
@@ -10238,7 +10240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>14</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>249</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>311.55999999999995</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>14</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>311.55999999999995</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>14</v>
       </c>
@@ -10402,7 +10404,7 @@
         <v>17.77</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>14</v>
       </c>
@@ -10443,7 +10445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>14</v>
       </c>
@@ -10484,7 +10486,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>14</v>
       </c>
@@ -10525,7 +10527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>14</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>50.44</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>14</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>14</v>
       </c>
@@ -10648,7 +10650,7 @@
         <v>20.94</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>14</v>
       </c>
@@ -10689,7 +10691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>14</v>
       </c>
@@ -10730,7 +10732,7 @@
         <v>136.26</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>14</v>
       </c>
@@ -10771,7 +10773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>14</v>
       </c>
@@ -10812,7 +10814,7 @@
         <v>49.72</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>14</v>
       </c>
@@ -10853,7 +10855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>14</v>
       </c>
@@ -10894,7 +10896,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>14</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>271</v>
       </c>
@@ -10976,7 +10978,7 @@
         <v>2134.0500000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>14</v>
       </c>
@@ -11017,7 +11019,7 @@
         <v>1624.05</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>14</v>
       </c>
@@ -11058,7 +11060,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>14</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>14</v>
       </c>
@@ -11140,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>14</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>14</v>
       </c>
@@ -11222,7 +11224,7 @@
         <v>1468.05</v>
       </c>
     </row>
-    <row r="240" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>14</v>
       </c>
@@ -11263,7 +11265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>14</v>
       </c>
@@ -11304,7 +11306,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="242" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>14</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="243" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>14</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>14</v>
       </c>
@@ -11427,7 +11429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>14</v>
       </c>
@@ -11468,7 +11470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>14</v>
       </c>
@@ -11509,7 +11511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>285</v>
       </c>
@@ -11550,7 +11552,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>14</v>
       </c>
@@ -11591,253 +11593,253 @@
         <v>420</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C249" t="s">
+    <row r="249" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E249" s="1" t="s">
+      <c r="D249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F249" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="4">
         <v>6.4519444000000004</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I249">
+      <c r="H249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I249" s="4">
         <v>51.615555200000003</v>
       </c>
-      <c r="J249">
-        <v>0</v>
-      </c>
-      <c r="K249" s="1">
+      <c r="J249" s="4">
+        <v>0</v>
+      </c>
+      <c r="K249" s="3">
         <v>50.6</v>
       </c>
-      <c r="L249" s="1">
+      <c r="L249" s="3">
         <v>50.6</v>
       </c>
-      <c r="M249">
+      <c r="M249" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C250" t="s">
-        <v>14</v>
-      </c>
-      <c r="D250" s="1" t="s">
+    <row r="250" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="E250" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="F250" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="7">
         <v>6.4519444000000004</v>
       </c>
-      <c r="H250" s="1">
+      <c r="H250" s="6">
         <v>8</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="7">
         <v>51.615555200000003</v>
       </c>
-      <c r="J250" t="s">
-        <v>14</v>
-      </c>
-      <c r="K250" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M250" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="J250" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K250" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L250" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M250" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E251" s="1" t="s">
+      <c r="D251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="F251" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="4">
         <v>2.0022221999999998</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I251">
+      <c r="H251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" s="4">
         <v>16.017777599999999</v>
       </c>
-      <c r="J251">
-        <v>0</v>
-      </c>
-      <c r="K251" s="1">
-        <v>0</v>
-      </c>
-      <c r="L251" s="1">
-        <v>0</v>
-      </c>
-      <c r="M251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C252" t="s">
-        <v>14</v>
-      </c>
-      <c r="D252" s="1" t="s">
+      <c r="J251" s="4">
+        <v>0</v>
+      </c>
+      <c r="K251" s="3">
+        <v>0</v>
+      </c>
+      <c r="L251" s="3">
+        <v>0</v>
+      </c>
+      <c r="M251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D252" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="E252" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F252" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="7">
         <v>2.0022221999999998</v>
       </c>
-      <c r="H252" s="1">
+      <c r="H252" s="6">
         <v>8</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="7">
         <v>16.017777599999999</v>
       </c>
-      <c r="J252" t="s">
-        <v>14</v>
-      </c>
-      <c r="K252" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="J252" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K252" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L252" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M252" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E253" s="1" t="s">
+      <c r="D253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="F253" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="4">
         <v>6.8297222</v>
       </c>
-      <c r="H253" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I253">
+      <c r="H253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" s="4">
         <v>54.6377776</v>
       </c>
-      <c r="J253">
-        <v>0</v>
-      </c>
-      <c r="K253" s="1">
+      <c r="J253" s="4">
+        <v>0</v>
+      </c>
+      <c r="K253" s="3">
         <v>59.5</v>
       </c>
-      <c r="L253" s="1">
+      <c r="L253" s="3">
         <v>59.5</v>
       </c>
-      <c r="M253">
+      <c r="M253" s="4">
         <v>273</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C254" t="s">
-        <v>14</v>
-      </c>
-      <c r="D254" s="1" t="s">
+    <row r="254" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D254" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E254" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="F254" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="7">
         <v>6.8297222</v>
       </c>
-      <c r="H254" s="1">
+      <c r="H254" s="6">
         <v>8</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="7">
         <v>54.6377776</v>
       </c>
-      <c r="J254" t="s">
-        <v>14</v>
-      </c>
-      <c r="K254" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L254" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M254" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J254" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K254" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L254" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M254" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>14</v>
       </c>
@@ -11878,89 +11880,89 @@
         <v>483</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C256" t="s">
+    <row r="256" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E256" s="1" t="s">
+      <c r="D256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="F256" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="4">
         <v>5.4625000000000004</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I256">
+      <c r="H256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I256" s="4">
         <v>43.7</v>
       </c>
-      <c r="J256">
-        <v>0</v>
-      </c>
-      <c r="K256" s="1">
+      <c r="J256" s="4">
+        <v>0</v>
+      </c>
+      <c r="K256" s="3">
         <v>95.8</v>
       </c>
-      <c r="L256" s="1">
+      <c r="L256" s="3">
         <v>95.8</v>
       </c>
-      <c r="M256">
+      <c r="M256" s="4">
         <v>483</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C257" t="s">
-        <v>14</v>
-      </c>
-      <c r="D257" s="1" t="s">
+    <row r="257" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E257" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="F257" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="7">
         <v>5.4625000000000004</v>
       </c>
-      <c r="H257" s="1">
+      <c r="H257" s="6">
         <v>8</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="7">
         <v>43.7</v>
       </c>
-      <c r="J257" t="s">
-        <v>14</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L257" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M257" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J257" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K257" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L257" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M257" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>297</v>
       </c>

--- a/Data/payroll.xlsx
+++ b/Data/payroll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10207"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinejudge/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Cameron/RonAccounting/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameron/Library/Mobile Documents/com~apple~CloudDocs/iCloud Storage/Other/RonAccounting/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0D1878-AB0D-F248-85B8-B5B3203E944B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F92E9-8D00-C945-B9EB-3655F32615FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17080" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll Detail" sheetId="1" r:id="rId1"/>
@@ -1409,16 +1409,16 @@
   <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A256" sqref="A256:XFD257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
